--- a/invoice_10942693.xlsx
+++ b/invoice_10942693.xlsx
@@ -465,7 +465,11 @@
           <t>Date</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>06/13/2018</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -473,11 +477,7 @@
           <t>Seller Name</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Coleman Inc</t>
-        </is>
-      </c>
+      <c r="B4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -485,11 +485,7 @@
           <t>Seller Address</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>706 Brady Fork West Paulfort, NY 06654</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -511,7 +507,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Lopez-Garcia</t>
+          <t>Coleman Inc Lopez-Garcia</t>
         </is>
       </c>
     </row>
@@ -523,7 +519,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>413 Snow Extensions West Michealfort, ME 41012</t>
+          <t>706 Brady Fork 413 Snow Extensions West Paulfort, NY 06654 West Michealfort, ME 41012</t>
         </is>
       </c>
     </row>
@@ -535,7 +531,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>947-74-2259</t>
+          <t>922-83-3513</t>
         </is>
       </c>
     </row>
@@ -550,7 +546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -593,6 +589,87 @@
         <is>
           <t>Gross_Worth</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Yilong 2'x3' Traditional</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>YILONG 4'x6' All over</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3600</v>
+      </c>
+      <c r="E3" t="n">
+        <v>18000</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>19800</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Watercolor Butterfly Carpets</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14.39</v>
+      </c>
+      <c r="E4" t="n">
+        <v>28.78</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>31.66</v>
       </c>
     </row>
   </sheetData>
@@ -634,7 +711,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>19,228.78</t>
         </is>
       </c>
     </row>
@@ -646,7 +723,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>1,922.88</t>
         </is>
       </c>
     </row>
@@ -658,7 +735,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2,115,166.00</t>
+          <t>21,151.66</t>
         </is>
       </c>
     </row>
